--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_7_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_7_sawtooth_10_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.82000000000013</v>
+        <v>22.85000000000013</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.367806408136829e-07</v>
+        <v>4.417321410876696e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>3.148225077994747e-06</v>
+        <v>6.902387004346253e-06</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.556230399596719</v>
+        <v>5.477220717254416</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.282068304374474, 7.830392494818965]</t>
+          <t>[3.046115563607443, 7.908325870901389]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.241834270000354e-06</v>
+        <v>1.234158585528e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>4.483668540000707e-06</v>
+        <v>1.234158585528e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.42142130072331</v>
+        <v>-1.320789704211925</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.9245792832802335, -0.9182633181663862]</t>
+          <t>[-1.8365266363327715, -0.8050527720910781]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>5.232533251131599e-08</v>
+        <v>7.372013777207087e-07</v>
       </c>
       <c r="R2" t="n">
-        <v>5.232533251131599e-08</v>
+        <v>7.372013777207087e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>10.40754106029001</v>
+        <v>10.7461310998081</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.05695317572846, 11.75812894485157]</t>
+          <t>[9.359953149631707, 12.132309049984485]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.162482482482513</v>
+        <v>4.803303303303331</v>
       </c>
       <c r="X2" t="n">
-        <v>3.335055055055076</v>
+        <v>2.927727727727745</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.989909909909951</v>
+        <v>6.678878878878916</v>
       </c>
     </row>
     <row r="3">
@@ -652,55 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.30000000000036</v>
+        <v>24.32000000000036</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.225144994261186e-06</v>
+        <v>1.026028664252721e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>1.105243376555889e-05</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1689762142009039</v>
-      </c>
+        <v>6.902387004346253e-06</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.009796319739733</v>
+        <v>6.11595615451308</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.4806770488839636, 8.538915590595503]</t>
+          <t>[3.472694667282486, 8.759217641743675]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4.496544030230254e-06</v>
+        <v>7.798571893147255e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>4.496544030230254e-06</v>
+        <v>1.234158585528e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>1.578658170272348</v>
+        <v>1.717026615475503</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.0629212381514996, 2.0943951023931966]</t>
+          <t>[1.2264475824825034, 2.207605648468503]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>5.211872711186061e-09</v>
+        <v>3.594946562657242e-11</v>
       </c>
       <c r="R3" t="n">
-        <v>1.042374542237212e-08</v>
+        <v>7.189893125314484e-11</v>
       </c>
       <c r="S3" t="n">
-        <v>10.14555626827591</v>
+        <v>10.39978191795657</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[8.545799497844152, 11.745313038707673]</t>
+          <t>[8.81889255744547, 11.980671278467664]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>18.19459459459486</v>
+        <v>17.67399399399426</v>
       </c>
       <c r="X3" t="n">
-        <v>16.20000000000023</v>
+        <v>15.77513513513537</v>
       </c>
       <c r="Y3" t="n">
-        <v>20.1891891891895</v>
+        <v>19.57285285285314</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_7_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_7_sawtooth_10_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.85000000000013</v>
+        <v>22.76000000000012</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>4.417321410876696e-07</v>
+        <v>9.614214047104497e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>6.902387004346253e-06</v>
+        <v>5.061600214313446e-06</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.477220717254416</v>
+        <v>5.164129471096809</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.046115563607443, 7.908325870901389]</t>
+          <t>[3.0356259088975452, 7.292633033296072]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.234158585528e-05</v>
+        <v>2.623469845364212e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>1.234158585528e-05</v>
+        <v>2.784063387162306e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.320789704211925</v>
+        <v>-1.496894998106848</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8365266363327715, -0.8050527720910781]</t>
+          <t>[-2.0252108797916177, -0.9685791164220783]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>7.372013777207087e-07</v>
+        <v>4.79722044310904e-08</v>
       </c>
       <c r="R2" t="n">
-        <v>7.372013777207087e-07</v>
+        <v>7.377605903968742e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>10.7461310998081</v>
+        <v>10.40632588040565</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.359953149631707, 12.132309049984485]</t>
+          <t>[9.063568442225126, 11.749083318586173]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.803303303303331</v>
+        <v>5.422302302302327</v>
       </c>
       <c r="X2" t="n">
-        <v>2.927727727727745</v>
+        <v>3.508548548548565</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.678878878878916</v>
+        <v>7.336056056056091</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>24.32000000000036</v>
+        <v>24.19000000000034</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.026028664252721e-06</v>
+        <v>2.120529095650525e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>6.902387004346253e-06</v>
+        <v>3.636383657597738e-06</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.11595615451308</v>
+        <v>6.434342826393194</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.472694667282486, 8.759217641743675]</t>
+          <t>[3.7860109915448596, 9.082674661241528]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>7.798571893147255e-06</v>
+        <v>2.784063387162306e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.234158585528e-05</v>
+        <v>2.784063387162306e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>1.717026615475503</v>
+        <v>1.377394977249579</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.2264475824825034, 2.207605648468503]</t>
+          <t>[0.8868159442565782, 1.8679740102425795]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3.594946562657242e-11</v>
+        <v>7.377605903968742e-08</v>
       </c>
       <c r="R3" t="n">
-        <v>7.189893125314484e-11</v>
+        <v>7.377605903968742e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>10.39978191795657</v>
+        <v>10.76917668170421</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[8.81889255744547, 11.980671278467664]</t>
+          <t>[9.198889498477627, 12.339463864930785]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>17.67399399399426</v>
+        <v>18.88708708708736</v>
       </c>
       <c r="X3" t="n">
-        <v>15.77513513513537</v>
+        <v>16.99837837837862</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.57285285285314</v>
+        <v>20.77579579579609</v>
       </c>
     </row>
   </sheetData>
